--- a/public/format_datapengguna.xlsx
+++ b/public/format_datapengguna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spc61\Downloads\Bahan Ujicom\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spc61\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AAE3EE-9596-4BA2-BC11-316B8A400458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95156DC9-3A3F-489D-BC72-216560F95193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,36 +20,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>NO</t>
   </si>
   <si>
-    <t xml:space="preserve">NAMA </t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
-    <t>sandy@gmail.com</t>
-  </si>
-  <si>
-    <t>HAK AKSES</t>
-  </si>
-  <si>
-    <t>WAKTU INPUT</t>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Hak Akses</t>
   </si>
   <si>
     <t>administrator</t>
   </si>
   <si>
-    <t>25-01-2024 11:27</t>
+    <t>password</t>
   </si>
   <si>
     <t>SANDY RIFALDI</t>
+  </si>
+  <si>
+    <t>sandy@example.com</t>
   </si>
 </sst>
 </file>
@@ -120,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,16 +135,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -163,7 +153,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -174,11 +164,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="9" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="9" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Comma [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -492,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -517,38 +505,33 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{A0EBC028-37CB-45C7-B52F-A163F21192F2}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{11E18FB7-A750-46A8-8323-3FD49E202B15}"/>
   </hyperlinks>
   <pageMargins left="0.26" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="4294967292" verticalDpi="0" r:id="rId2"/>
